--- a/tables/zero_crossings_table.xlsx
+++ b/tables/zero_crossings_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79140\PycharmProjects\audio_analysis\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6373F310-A216-454A-AE8F-B42ABE0EF7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13AC05F-ADCA-43A2-A118-8AE1D81BDEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,16 +201,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3320,19 +3317,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>192.45</c:v>
+                  <c:v>167.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>179.44</c:v>
+                  <c:v>139.83000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>144.06</c:v>
+                  <c:v>100.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117.25</c:v>
+                  <c:v>79.849999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123.15</c:v>
+                  <c:v>106.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6565,8 +6562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922DFCEB-83F7-2F4F-86C8-C4017AB125FA}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -6599,11 +6596,11 @@
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>82.4</v>
       </c>
-      <c r="C2" s="8">
-        <v>192.45</v>
+      <c r="C2" s="7">
+        <v>167.82</v>
       </c>
       <c r="D2" s="7">
         <v>0.97430000000000005</v>
@@ -6621,7 +6618,7 @@
         <v>87.31</v>
       </c>
       <c r="C3" s="7">
-        <v>179.44</v>
+        <v>139.83000000000001</v>
       </c>
       <c r="D3" s="7">
         <v>1.2372000000000001</v>
@@ -6639,7 +6636,7 @@
         <v>92.5</v>
       </c>
       <c r="C4" s="7">
-        <v>144.06</v>
+        <v>100.68</v>
       </c>
       <c r="D4" s="7">
         <v>1.2217</v>
@@ -6657,7 +6654,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="7">
-        <v>117.25</v>
+        <v>79.849999999999994</v>
       </c>
       <c r="D5" s="7">
         <v>1.2836000000000001</v>
@@ -6675,9 +6672,9 @@
         <v>110</v>
       </c>
       <c r="C6" s="7">
-        <v>123.15</v>
-      </c>
-      <c r="D6" s="8">
+        <v>106.53</v>
+      </c>
+      <c r="D6" s="7">
         <v>2.2574999999999998</v>
       </c>
     </row>

--- a/tables/zero_crossings_table.xlsx
+++ b/tables/zero_crossings_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79140\PycharmProjects\audio_analysis\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13AC05F-ADCA-43A2-A118-8AE1D81BDEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B70D46C-690E-4982-86F3-A8107E6789D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6563,7 +6563,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>

--- a/tables/zero_crossings_table.xlsx
+++ b/tables/zero_crossings_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79140\PycharmProjects\audio_analysis\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B70D46C-690E-4982-86F3-A8107E6789D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA2BB6-3B83-4ED9-AA38-65FBE2756C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
   <si>
     <t># of Total Words</t>
   </si>
@@ -84,10 +84,13 @@
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Frequency (estimated by standard zero crossing) (Hz)</t>
+    <t>Audio duration (s)</t>
   </si>
   <si>
-    <t>Audio duration (s)</t>
+    <t>Frequency (estimated by ZC) (Hz)</t>
+  </si>
+  <si>
+    <t>Frequency (estimated by ZC + low pass at 500Hz) (Hz)</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,6 +214,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3163,7 +3169,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Frequency chart</a:t>
+              <a:t>Frequency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3199,7 +3209,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5456304574003E-2"/>
+          <c:y val="0.14856481481481484"/>
+          <c:w val="0.92454369542599701"/>
+          <c:h val="0.61498432487605714"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3268,7 +3288,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2854-4962-A402-29D8C0950B12}"/>
+              <c16:uniqueId val="{00000000-383F-4CCC-AB97-71DA7532864F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3281,7 +3301,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Frequency (estimated by standard zero crossing) (Hz)</c:v>
+                  <c:v>Frequency (estimated by ZC) (Hz)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3337,7 +3357,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2854-4962-A402-29D8C0950B12}"/>
+              <c16:uniqueId val="{00000001-383F-4CCC-AB97-71DA7532864F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3350,7 +3370,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Audio duration (s)</c:v>
+                  <c:v>Frequency (estimated by ZC + low pass at 500Hz) (Hz)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3386,19 +3406,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.97430000000000005</c:v>
+                  <c:v>123.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2372000000000001</c:v>
+                  <c:v>96.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2217</c:v>
+                  <c:v>70.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2836000000000001</c:v>
+                  <c:v>66.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2574999999999998</c:v>
+                  <c:v>84.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3406,7 +3426,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2854-4962-A402-29D8C0950B12}"/>
+              <c16:uniqueId val="{00000002-383F-4CCC-AB97-71DA7532864F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3420,11 +3440,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1784719264"/>
-        <c:axId val="1784714464"/>
+        <c:axId val="1364181343"/>
+        <c:axId val="1364187583"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1784719264"/>
+        <c:axId val="1364181343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3466,7 +3486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784714464"/>
+        <c:crossAx val="1364187583"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3474,7 +3494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1784714464"/>
+        <c:axId val="1364187583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3525,7 +3545,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1784719264"/>
+        <c:crossAx val="1364181343"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5955,22 +5975,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>751218</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>44569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4724400</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>93453</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>92014</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1AE022-EC55-53E6-1A67-628085959C64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F381FF6-51A5-EDA8-E45D-237F53FA9B9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6563,15 +6583,16 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="83.21875" customWidth="1"/>
-    <col min="4" max="8" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" customWidth="1"/>
+    <col min="5" max="8" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.05" customHeight="1">
@@ -6582,12 +6603,14 @@
         <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -6602,10 +6625,12 @@
       <c r="C2" s="7">
         <v>167.82</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
+        <v>123.17</v>
+      </c>
+      <c r="E2" s="7">
         <v>0.97430000000000005</v>
       </c>
-      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -6620,10 +6645,12 @@
       <c r="C3" s="7">
         <v>139.83000000000001</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
+        <v>96.99</v>
+      </c>
+      <c r="E3" s="7">
         <v>1.2372000000000001</v>
       </c>
-      <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -6638,10 +6665,12 @@
       <c r="C4" s="7">
         <v>100.68</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
+        <v>70.8</v>
+      </c>
+      <c r="E4" s="7">
         <v>1.2217</v>
       </c>
-      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -6656,10 +6685,12 @@
       <c r="C5" s="7">
         <v>79.849999999999994</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
+        <v>66.22</v>
+      </c>
+      <c r="E5" s="7">
         <v>1.2836000000000001</v>
       </c>
-      <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -6674,7 +6705,10 @@
       <c r="C6" s="7">
         <v>106.53</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
+        <v>84.16</v>
+      </c>
+      <c r="E6" s="7">
         <v>2.2574999999999998</v>
       </c>
     </row>

--- a/tables/zero_crossings_table.xlsx
+++ b/tables/zero_crossings_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79140\PycharmProjects\audio_analysis\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBA2BB6-3B83-4ED9-AA38-65FBE2756C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61BB621-0E07-4A7C-8D5C-EC381273F044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/tables/zero_crossings_table.xlsx
+++ b/tables/zero_crossings_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79140\PycharmProjects\audio_analysis\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61BB621-0E07-4A7C-8D5C-EC381273F044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898D402C-81C7-4D2B-8D26-D2A970D3D200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6583,7 +6583,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
